--- a/Beta_xls/01_Algebra_Post.xlsx
+++ b/Beta_xls/01_Algebra_Post.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\01_Beta-Me\Beta_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0709D0F-7E3F-467A-BCE5-81FCF8E6120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D7728-1C70-4D49-AC1F-5DACDAFCCB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5446CEAE-82CE-482C-B414-F94D7F4AC71D}"/>
   </bookViews>
@@ -4055,7 +4055,7 @@
                         <a:schemeClr val="bg1"/>
                       </a:solidFill>
                     </a:rPr>
-                    <a:t>h ↔o</a:t>
+                    <a:t>h ↔ o</a:t>
                   </a:r>
                   <a:endParaRPr lang="LID4096" sz="1600" b="1">
                     <a:solidFill>
@@ -7521,15 +7521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>75785</xdr:colOff>
+      <xdr:colOff>75782</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>48039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>569428</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:colOff>569425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>93591</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7544,7 +7544,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="821220" y="246822"/>
+          <a:off x="821217" y="180561"/>
           <a:ext cx="10093186" cy="6033878"/>
           <a:chOff x="821220" y="246822"/>
           <a:chExt cx="10093186" cy="6033878"/>
@@ -7583,8 +7583,8 @@
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
-            <a:off x="12263851" y="266700"/>
-            <a:ext cx="1707162" cy="2932445"/>
+            <a:off x="12222367" y="266700"/>
+            <a:ext cx="1748646" cy="2932445"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7748,8 +7748,8 @@
               </a:p>
             </xdr:txBody>
           </xdr:sp>
-          <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-            <mc:Choice Requires="a14">
+          <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+            <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="53" name="TextBox 52">
@@ -8237,7 +8237,7 @@
                 </xdr:txBody>
               </xdr:sp>
             </mc:Choice>
-            <mc:Fallback xmlns="">
+            <mc:Fallback>
               <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="53" name="TextBox 52">
@@ -8506,8 +8506,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-        <mc:Choice Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="46" name="TextBox 45">
@@ -8802,7 +8802,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback xmlns="">
+        <mc:Fallback>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="46" name="TextBox 45">
@@ -9805,7 +9805,7 @@
   <dimension ref="A1:BI62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB56" sqref="AB56"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9911,11 +9911,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="9">
         <f ca="1">$F$3+RANDBETWEEN($F$3/10,$F$3/5)</f>
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G2" s="9">
         <f ca="1">$G$3+RANDBETWEEN($G$3/10,$G$3/5)</f>
-        <v>1845</v>
+        <v>1799</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
@@ -9982,7 +9982,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="12">
         <f ca="1">RANDBETWEEN($H$2,$H$3)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13">
@@ -10262,7 +10262,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="34">
         <f t="shared" ref="F6:H16" ca="1" si="0">RANDBETWEEN($H$2,$H$3)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" s="37">
         <f t="shared" ca="1" si="0"/>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="H6" s="38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10386,15 +10386,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H7" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -10509,7 +10509,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" s="57">
         <f t="shared" ca="1" si="0"/>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="H8" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -10632,15 +10632,15 @@
       <c r="E9" s="1"/>
       <c r="F9" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -10744,15 +10744,15 @@
       <c r="E10" s="1"/>
       <c r="F10" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H10" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -10866,11 +10866,11 @@
       </c>
       <c r="G11" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -10988,15 +10988,15 @@
       <c r="E12" s="1"/>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -11117,15 +11117,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -11242,15 +11242,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -11374,15 +11374,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" s="57">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -11495,15 +11495,15 @@
       <c r="E16" s="1"/>
       <c r="F16" s="96">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -12052,32 +12052,39 @@
         <v>29</v>
       </c>
       <c r="M22" s="141">
-        <f t="array" ref="M22:U23">TRANSPOSE(K6:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="141">
+        <f>M22+1</f>
+        <v>2</v>
+      </c>
+      <c r="O22" s="141">
+        <f t="shared" ref="O22:U22" si="9">N22+1</f>
+        <v>3</v>
+      </c>
+      <c r="P22" s="141">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Q22" s="141">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="R22" s="141">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S22" s="141">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="T22" s="141">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="N22" s="141">
-        <v>8</v>
-      </c>
-      <c r="O22" s="141">
-        <v>8</v>
-      </c>
-      <c r="P22" s="141">
-        <v>7</v>
-      </c>
-      <c r="Q22" s="141">
-        <v>7</v>
-      </c>
-      <c r="R22" s="141">
-        <v>6</v>
-      </c>
-      <c r="S22" s="141">
-        <v>5</v>
-      </c>
-      <c r="T22" s="141">
-        <v>4</v>
-      </c>
       <c r="U22" s="141">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -12129,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="136">
-        <f t="shared" ref="D23:D32" si="9">C23*2</f>
+        <f t="shared" ref="D23:D32" si="10">C23*2</f>
         <v>2</v>
       </c>
       <c r="E23" s="137">
@@ -12145,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" ref="I23:I32" si="10">C23*$I$21</f>
+        <f t="shared" ref="I23:I32" si="11">C23*$I$21</f>
         <v>2</v>
       </c>
       <c r="J23" s="2"/>
@@ -12153,33 +12160,15 @@
       <c r="L23" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="57">
-        <v>1</v>
-      </c>
-      <c r="N23" s="57">
-        <v>1</v>
-      </c>
-      <c r="O23" s="57">
-        <v>1</v>
-      </c>
-      <c r="P23" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="57">
-        <v>3</v>
-      </c>
-      <c r="R23" s="57">
-        <v>4</v>
-      </c>
-      <c r="S23" s="57">
-        <v>4</v>
-      </c>
-      <c r="T23" s="57">
-        <v>5</v>
-      </c>
-      <c r="U23" s="57">
-        <v>8</v>
-      </c>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -12230,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E24" s="137">
@@ -12246,7 +12235,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J24" s="2"/>
@@ -12311,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E25" s="137">
@@ -12327,7 +12316,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J25" s="2"/>
@@ -12336,33 +12325,33 @@
         <f>S5</f>
         <v>VAR</v>
       </c>
-      <c r="M25" s="146" t="e">
-        <f t="array" ref="M25:U25">MMULT(M22:U22,K6:K16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="R25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T25" s="146" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U25" s="146" t="e">
-        <v>#VALUE!</v>
+      <c r="M25" s="146">
+        <f t="array" ref="M25:U25">MMULT(K6:K16,M22:U22)</f>
+        <v>8</v>
+      </c>
+      <c r="N25" s="146">
+        <v>16</v>
+      </c>
+      <c r="O25" s="146">
+        <v>24</v>
+      </c>
+      <c r="P25" s="146">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="146">
+        <v>40</v>
+      </c>
+      <c r="R25" s="146">
+        <v>48</v>
+      </c>
+      <c r="S25" s="146">
+        <v>56</v>
+      </c>
+      <c r="T25" s="146">
+        <v>64</v>
+      </c>
+      <c r="U25" s="146">
+        <v>72</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="147" t="s">
@@ -12416,7 +12405,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E26" s="137">
@@ -12426,24 +12415,43 @@
       <c r="G26" s="150"/>
       <c r="H26" s="151"/>
       <c r="I26" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="152" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
+      <c r="L26" s="152" t="str">
+        <f>L25</f>
+        <v>VAR</v>
+      </c>
+      <c r="M26" s="153">
+        <f t="array" ref="M26:U26">MMULT(L6:L16,M22:U22)</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="153">
+        <v>2</v>
+      </c>
+      <c r="O26" s="153">
+        <v>3</v>
+      </c>
+      <c r="P26" s="153">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="153">
+        <v>5</v>
+      </c>
+      <c r="R26" s="153">
+        <v>6</v>
+      </c>
+      <c r="S26" s="153">
+        <v>7</v>
+      </c>
+      <c r="T26" s="153">
+        <v>8</v>
+      </c>
+      <c r="U26" s="153">
+        <v>9</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="154" t="s">
         <v>32</v>
@@ -12496,7 +12504,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E27" s="137">
@@ -12506,7 +12514,7 @@
       <c r="G27" s="150"/>
       <c r="H27" s="151"/>
       <c r="I27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="J27" s="2"/>
@@ -12571,7 +12579,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E28" s="137">
@@ -12581,7 +12589,7 @@
       <c r="G28" s="150"/>
       <c r="H28" s="151"/>
       <c r="I28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="J28" s="2"/>
@@ -12646,7 +12654,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E29" s="137">
@@ -12656,7 +12664,7 @@
       <c r="G29" s="150"/>
       <c r="H29" s="151"/>
       <c r="I29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="J29" s="2"/>
@@ -12664,32 +12672,32 @@
         <v>1</v>
       </c>
       <c r="L29" s="156">
-        <f t="shared" ref="L29:N39" si="11">IF(K6=0,"",K6)</f>
+        <f t="shared" ref="L29:N39" si="12">IF(K6=0,"",K6)</f>
         <v>8</v>
       </c>
       <c r="M29" s="157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N29" s="158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O29" s="155"/>
       <c r="P29" s="156">
-        <f t="shared" ref="P29:R39" si="12">IF(K6=0,"",K6-O$17)</f>
+        <f t="shared" ref="P29:R39" si="13">IF(K6=0,"",K6-O$17)</f>
         <v>2.3636363636363633</v>
       </c>
       <c r="Q29" s="157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.0909090909090908</v>
       </c>
       <c r="R29" s="158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.1818181818181817</v>
       </c>
       <c r="S29" s="158">
-        <f t="shared" ref="S29:S39" si="13">IF(K6=0,"",(K6-O$17)^2)</f>
+        <f t="shared" ref="S29:S39" si="14">IF(K6=0,"",(K6-O$17)^2)</f>
         <v>5.5867768595041305</v>
       </c>
       <c r="T29" s="1"/>
@@ -12744,7 +12752,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="E30" s="137">
@@ -12754,7 +12762,7 @@
       <c r="G30" s="150"/>
       <c r="H30" s="151"/>
       <c r="I30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="J30" s="2"/>
@@ -12763,32 +12771,32 @@
         <v>2</v>
       </c>
       <c r="L30" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="M30" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N30" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O30" s="155"/>
       <c r="P30" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3636363636363633</v>
       </c>
       <c r="Q30" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.0909090909090908</v>
       </c>
       <c r="R30" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.1818181818181817</v>
       </c>
       <c r="S30" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="T30" s="1"/>
@@ -12843,7 +12851,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="E31" s="137">
@@ -12853,41 +12861,41 @@
       <c r="G31" s="150"/>
       <c r="H31" s="151"/>
       <c r="I31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="155">
-        <f t="shared" ref="K31:K39" si="14">K30+1</f>
+        <f t="shared" ref="K31:K39" si="15">K30+1</f>
         <v>3</v>
       </c>
       <c r="L31" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="M31" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N31" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O31" s="155"/>
       <c r="P31" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3636363636363633</v>
       </c>
       <c r="Q31" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.0909090909090908</v>
       </c>
       <c r="R31" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.1818181818181817</v>
       </c>
       <c r="S31" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5867768595041305</v>
       </c>
       <c r="T31" s="1"/>
@@ -12942,7 +12950,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="E32" s="137">
@@ -12952,41 +12960,41 @@
       <c r="G32" s="162"/>
       <c r="H32" s="163"/>
       <c r="I32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="L32" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="M32" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N32" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O32" s="155"/>
       <c r="P32" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3636363636363633</v>
       </c>
       <c r="Q32" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-3.0909090909090908</v>
       </c>
       <c r="R32" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-6.1818181818181817</v>
       </c>
       <c r="S32" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="T32" s="1"/>
@@ -13044,36 +13052,36 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="L33" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="M33" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N33" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O33" s="155"/>
       <c r="P33" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3636363636363633</v>
       </c>
       <c r="Q33" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.0909090909090908</v>
       </c>
       <c r="R33" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.1818181818181817</v>
       </c>
       <c r="S33" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.8595041322314041</v>
       </c>
       <c r="T33" s="1"/>
@@ -13133,36 +13141,36 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="L34" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="M34" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="N34" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O34" s="155"/>
       <c r="P34" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.36363636363636331</v>
       </c>
       <c r="Q34" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.0909090909090828E-2</v>
       </c>
       <c r="R34" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.18181818181818166</v>
       </c>
       <c r="S34" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13223140495867744</v>
       </c>
       <c r="T34" s="1"/>
@@ -13220,36 +13228,36 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="L35" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="M35" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="N35" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O35" s="155"/>
       <c r="P35" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.63636363636363669</v>
       </c>
       <c r="Q35" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-9.0909090909090828E-2</v>
       </c>
       <c r="R35" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.18181818181818166</v>
       </c>
       <c r="S35" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.40495867768595084</v>
       </c>
       <c r="T35" s="1"/>
@@ -13313,36 +13321,36 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="L36" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="M36" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="N36" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="O36" s="155"/>
       <c r="P36" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.6363636363636367</v>
       </c>
       <c r="Q36" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="R36" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="S36" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.677685950413224</v>
       </c>
       <c r="T36" s="1"/>
@@ -13406,36 +13414,36 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="L37" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="M37" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N37" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="O37" s="155"/>
       <c r="P37" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.6363636363636367</v>
       </c>
       <c r="Q37" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.9090909090909092</v>
       </c>
       <c r="R37" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8181818181818183</v>
       </c>
       <c r="S37" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.677685950413224</v>
       </c>
       <c r="T37" s="1"/>
@@ -13499,36 +13507,36 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L38" s="159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="M38" s="155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="N38" s="160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="O38" s="155"/>
       <c r="P38" s="159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.6363636363636367</v>
       </c>
       <c r="Q38" s="155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.9090909090909092</v>
       </c>
       <c r="R38" s="160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8181818181818183</v>
       </c>
       <c r="S38" s="160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.677685950413224</v>
       </c>
       <c r="T38" s="1"/>
@@ -13592,36 +13600,36 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="L39" s="166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M39" s="167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="N39" s="168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="O39" s="155"/>
       <c r="P39" s="166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-4.6363636363636367</v>
       </c>
       <c r="Q39" s="167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.9090909090909092</v>
       </c>
       <c r="R39" s="168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.8181818181818183</v>
       </c>
       <c r="S39" s="168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21.495867768595044</v>
       </c>
       <c r="T39" s="1"/>
